--- a/excel_operator/excel_operator_demo.xlsx
+++ b/excel_operator/excel_operator_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_data\person\PythonLearning\excel_operator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCF5D1-6420-4087-B963-EE742BC3713A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43803F81-36E8-4059-A803-0ACB84A544C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,15 +71,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊八</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
